--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1495934.717539842</v>
+        <v>1494047.136023441</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>355.546756558266</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>24.59170878023815</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>52.10844059186253</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>55.90301252244944</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>204.7499446328827</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>86.23085044539023</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>168.4067386598798</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>197.850908719582</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>31.60187511706032</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>83.48093156597443</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,16 +1303,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>14.4638972269085</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>110.6907158639456</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>98.00807076326761</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>96.71233187893849</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2495582252012</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>92.47773152015046</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.90903434524435</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>117.0343205662369</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>101.3913673420928</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>79.81062173355286</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>122.6700682149387</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.250241677065844</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>40.38113011422045</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>68.09524045125241</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965528</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180121</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437417</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571492</v>
+        <v>55.21598883571495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523573</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>63.86947506624854</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1637.643464250441</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>1568.120975752609</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1209.855277145859</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>824.0670245476144</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>413.0811197580069</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1637.643464250441</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1637.643464250441</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y2" t="n">
-        <v>1637.643464250441</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4410,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>106.5777702969933</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>671.6612947898188</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>443.6717438918015</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1293.182375355301</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C5" t="n">
-        <v>924.2198584148894</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D5" t="n">
-        <v>565.9541598081389</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="E5" t="n">
-        <v>565.9541598081389</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="F5" t="n">
-        <v>154.9682550185314</v>
+        <v>414.2270837170756</v>
       </c>
       <c r="G5" t="n">
-        <v>141.0448509571223</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>141.0448509571223</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.921547395234</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1679.782215419423</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>528.604248231895</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>528.604248231895</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>528.604248231895</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600564</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.603060210037</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>426.9821918225993</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>413.0587877611902</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>85.86406779719306</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2557.796228249752</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2557.796228249752</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2304.034442887843</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1972.971555544273</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1620.202900274159</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1620.202900274159</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1620.202900274159</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940987</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117056</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5127,7 +5127,7 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>566.6879222525852</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C13" t="n">
-        <v>397.7517393246783</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123425</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123425</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.107466654927</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.107466654927</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>1132.42297844904</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286131</v>
+        <v>843.0058084120794</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286131</v>
+        <v>615.0162575140621</v>
       </c>
       <c r="Y13" t="n">
-        <v>566.6879222525852</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,28 +5261,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5355,19 +5355,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.3990000507112</v>
+        <v>510.732446006243</v>
       </c>
       <c r="C16" t="n">
-        <v>562.3990000507112</v>
+        <v>341.7962630783361</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383755</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383755</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5434,16 +5434,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1033.464634917912</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1033.464634917912</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W16" t="n">
-        <v>744.0474648809509</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X16" t="n">
-        <v>744.0474648809509</v>
+        <v>692.3809108364827</v>
       </c>
       <c r="Y16" t="n">
-        <v>744.0474648809509</v>
+        <v>692.3809108364827</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5513,16 +5513,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.130185042679</v>
+        <v>488.6586744753687</v>
       </c>
       <c r="C19" t="n">
-        <v>245.130185042679</v>
+        <v>488.6586744753687</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>338.542035063033</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>190.6289414806399</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>190.6289414806399</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609663</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550795</v>
+        <v>709.4512536188988</v>
       </c>
       <c r="W19" t="n">
-        <v>731.3177283550795</v>
+        <v>709.4512536188988</v>
       </c>
       <c r="X19" t="n">
-        <v>647.5712290164488</v>
+        <v>709.4512536188988</v>
       </c>
       <c r="Y19" t="n">
-        <v>426.7786498729187</v>
+        <v>488.6586744753687</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,40 +5741,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.3337308726216</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5929,31 +5929,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1380.699785137461</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1156.914369926967</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1156.914369926967</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>902.2298817210801</v>
       </c>
       <c r="W22" t="n">
-        <v>428.9821957028613</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="X22" t="n">
-        <v>428.9821957028613</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="Y22" t="n">
-        <v>428.9821957028613</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>861.4909633328887</v>
+        <v>604.4337416462794</v>
       </c>
       <c r="C25" t="n">
-        <v>692.5547804049818</v>
+        <v>604.4337416462794</v>
       </c>
       <c r="D25" t="n">
-        <v>542.438140992646</v>
+        <v>604.4337416462794</v>
       </c>
       <c r="E25" t="n">
-        <v>394.5250474102529</v>
+        <v>604.4337416462794</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>457.5437941483691</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>289.3684724681897</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>1263.932007306658</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W25" t="n">
-        <v>1263.932007306658</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="X25" t="n">
-        <v>1263.932007306658</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="Y25" t="n">
-        <v>1043.139428163128</v>
+        <v>786.0822064765191</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514085</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.392413140465</v>
+        <v>399.6573425680684</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404651</v>
+        <v>399.6573425680684</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>249.5407031557327</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765194</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0822064765194</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W28" t="n">
-        <v>496.6650364395588</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="X28" t="n">
-        <v>268.6754855415415</v>
+        <v>581.3058073983082</v>
       </c>
       <c r="Y28" t="n">
-        <v>268.6754855415415</v>
+        <v>581.3058073983082</v>
       </c>
     </row>
     <row r="29">
@@ -6458,55 +6458,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>543.042358604303</v>
+        <v>750.8748194215258</v>
       </c>
       <c r="C31" t="n">
-        <v>543.042358604303</v>
+        <v>637.6995017749896</v>
       </c>
       <c r="D31" t="n">
-        <v>448.6865844733381</v>
+        <v>543.3437276440246</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723157</v>
+        <v>451.1914993430022</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557762</v>
+        <v>360.0624171264626</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569676</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
         <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1791.966918252997</v>
       </c>
       <c r="T31" t="n">
-        <v>1672.138058817155</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1438.770285312084</v>
+        <v>1390.574594818803</v>
       </c>
       <c r="V31" t="n">
-        <v>1239.846662387567</v>
+        <v>1390.574594818803</v>
       </c>
       <c r="W31" t="n">
-        <v>1006.190357631978</v>
+        <v>1156.918290063213</v>
       </c>
       <c r="X31" t="n">
-        <v>833.9616720153313</v>
+        <v>984.6896044465664</v>
       </c>
       <c r="Y31" t="n">
-        <v>668.9299581531719</v>
+        <v>819.657890584407</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,55 +6853,55 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7002,13 +7002,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7017,19 +7017,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
         <v>320.884739850451</v>
@@ -7090,22 +7090,22 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7187,13 +7187,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,13 +7239,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,19 +7254,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,7 +7400,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,28 +7409,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>223.1552313137088</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>634.0455001582214</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504514</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7582,37 +7582,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,13 +7661,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,19 +7728,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
         <v>398.9545963083206</v>
@@ -7798,19 +7798,19 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,10 +7819,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384657</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,10 +8775,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9009,16 +9009,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>38.86002301949884</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>159.0121003135238</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>85.3000633212781</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,10 +23467,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>110.8568451944437</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>120.5765825888272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>51.90314113927387</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23704,10 +23704,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>46.9877941733761</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>74.01583694322713</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>142.8006210437928</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>80.88648941736631</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>185.1316309944982</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>69.10320663398326</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>129.4675751088893</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>176.5817385048714</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>106.0528325323487</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>56.53348310212787</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897906</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>102.4748293635836</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144794</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144794</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>933176.1663144792</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144794</v>
       </c>
     </row>
     <row r="11">
@@ -26314,7 +26314,7 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
@@ -26323,34 +26323,34 @@
         <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="I2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="J2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="J2" t="n">
-        <v>449683.4186983653</v>
-      </c>
       <c r="K2" t="n">
-        <v>467845.4579470613</v>
+        <v>467845.4579470612</v>
       </c>
       <c r="L2" t="n">
+        <v>472099.0176719627</v>
+      </c>
+      <c r="M2" t="n">
+        <v>472099.0176719627</v>
+      </c>
+      <c r="N2" t="n">
+        <v>472099.0176719627</v>
+      </c>
+      <c r="O2" t="n">
         <v>472099.0176719628</v>
-      </c>
-      <c r="M2" t="n">
-        <v>472099.0176719628</v>
-      </c>
-      <c r="N2" t="n">
-        <v>472099.0176719628</v>
-      </c>
-      <c r="O2" t="n">
-        <v>472099.0176719627</v>
       </c>
       <c r="P2" t="n">
         <v>472099.0176719628</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028456</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086688</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284562</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.66962143911</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563565</v>
+        <v>33210.2921356356</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,10 +26491,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357502.8978572137</v>
+        <v>-357502.8978572136</v>
       </c>
       <c r="C6" t="n">
-        <v>232464.9813573307</v>
+        <v>232464.9813573309</v>
       </c>
       <c r="D6" t="n">
         <v>232464.9813573309</v>
       </c>
       <c r="E6" t="n">
-        <v>-182509.6133486866</v>
+        <v>-182607.0724746589</v>
       </c>
       <c r="F6" t="n">
-        <v>342650.4231282094</v>
+        <v>342552.9640022372</v>
       </c>
       <c r="G6" t="n">
-        <v>342650.4231282095</v>
+        <v>342552.9640022372</v>
       </c>
       <c r="H6" t="n">
-        <v>342650.4231282097</v>
+        <v>342552.9640022374</v>
       </c>
       <c r="I6" t="n">
-        <v>342650.4231282095</v>
+        <v>342552.9640022374</v>
       </c>
       <c r="J6" t="n">
-        <v>166227.2039356167</v>
+        <v>166129.7448096443</v>
       </c>
       <c r="K6" t="n">
-        <v>293844.3519783573</v>
+        <v>293825.8582404229</v>
       </c>
       <c r="L6" t="n">
         <v>326576.5481883109</v>
       </c>
       <c r="M6" t="n">
-        <v>202118.4397553407</v>
+        <v>202118.4397553406</v>
       </c>
       <c r="N6" t="n">
         <v>336919.4549891778</v>
       </c>
       <c r="O6" t="n">
-        <v>336919.4549891778</v>
+        <v>336919.4549891779</v>
       </c>
       <c r="P6" t="n">
-        <v>292756.8496863322</v>
+        <v>292756.8496863323</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010836</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>58.23741346252899</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>324.6492599371749</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>82.85718120047571</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>230.6199858141416</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>209.0342253879123</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70046579947102</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,13 +27670,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.42524152205752</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>27.18419673850229</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>120.3294411278009</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>90.93478124299708</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>141.7069916148866</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.206962611348483e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35647,16 +35647,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>321.223725260607</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36136,13 +36136,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799286</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>366.1055152450486</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412259</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043182</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>127.2102422761848</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
